--- a/resources/product-roadmap.xlsx
+++ b/resources/product-roadmap.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonchau/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonchau/Documents/Projects/product-development-portal/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFECD0DC-B2CD-0D44-BB6B-71F2317078C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586F10A1-6697-D445-B54B-044E1DB7391D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42820" yWindow="1700" windowWidth="27640" windowHeight="16940" xr2:uid="{6CE23049-3A3F-9E44-9718-050FD42115F0}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{6CE23049-3A3F-9E44-9718-050FD42115F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$X$46</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="180">
   <si>
     <t>#</t>
   </si>
@@ -287,6 +290,300 @@
   </si>
   <si>
     <t>CI 8-120 DSP V2</t>
+  </si>
+  <si>
+    <t>BluOS</t>
+  </si>
+  <si>
+    <t>M33 V2</t>
+  </si>
+  <si>
+    <t>As M33; +Bal out -2nd speaker +ES9039PRO Qrono + ESS FoQus + new Eigentakt(?)</t>
+  </si>
+  <si>
+    <t>MHE 2025</t>
+  </si>
+  <si>
+    <t>M23 V2</t>
+  </si>
+  <si>
+    <t>As M23; new Eigentakt; trig.out; also in black (match M33V2 in black?)</t>
+  </si>
+  <si>
+    <t>POWERNODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Channel Powernode / Simple AV; Axign amp w GaN, 100W 2-channel, </t>
+  </si>
+  <si>
+    <t>N331</t>
+  </si>
+  <si>
+    <t>Munich 2025</t>
+  </si>
+  <si>
+    <t>M600</t>
+  </si>
+  <si>
+    <t>Streamer section M66 + MQA Qrono; 12S; in Black &amp; Silver</t>
+  </si>
+  <si>
+    <t>Pro Hub</t>
+  </si>
+  <si>
+    <t>Pro Hub connections and internal storage, Phase 2 failover B100S Mech ID</t>
+  </si>
+  <si>
+    <t>Priority 4</t>
+  </si>
+  <si>
+    <t>InfoComm 25</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>Will do some repackaging for next production run</t>
+  </si>
+  <si>
+    <t>CLAS</t>
+  </si>
+  <si>
+    <t>C589</t>
+  </si>
+  <si>
+    <t>C568 successor, ES9039 DAC,  MQA, Balanced; Transitions to new styling</t>
+  </si>
+  <si>
+    <t>C599</t>
+  </si>
+  <si>
+    <t>C588 Replacement; higher price; electr. 33/45; double glass; Blue or Bronze cartridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3030 </t>
+  </si>
+  <si>
+    <t>C3050 looks; just vinyl wrap over metal cover; Class D, BT, MDC2??</t>
+  </si>
+  <si>
+    <t>Vintage ID</t>
+  </si>
+  <si>
+    <t>M850</t>
+  </si>
+  <si>
+    <t>2 x 400 Purifi; seperate PS L/ R/ gain section, Mech VU meters  (M28 Chassis)</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>replacement ci580v2, modular 4 zone streamer</t>
+  </si>
+  <si>
+    <t>CEDIA 2025</t>
+  </si>
+  <si>
+    <t>PIF submitted, project ko when visiting factory nov'24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4 </t>
+  </si>
+  <si>
+    <t>CI Hub for in rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2 </t>
+  </si>
+  <si>
+    <t>CI hub for TV</t>
+  </si>
+  <si>
+    <t>C549</t>
+  </si>
+  <si>
+    <t>C558 Replacement; El. Switching, same price level</t>
+  </si>
+  <si>
+    <t>PULSE</t>
+  </si>
+  <si>
+    <t>PULSE CINEMA</t>
+  </si>
+  <si>
+    <t>iMX.8; 3.1 w/ctr; new ID; length +5" (match 55" TV); upfiring speakers</t>
+  </si>
+  <si>
+    <t>P535</t>
+  </si>
+  <si>
+    <t>PULSE CINEMA MINI</t>
+  </si>
+  <si>
+    <t>iMX.8; UI; new ID; 2-channel with virtual Atmos, for 30-50" screens</t>
+  </si>
+  <si>
+    <t>P435</t>
+  </si>
+  <si>
+    <t>M880</t>
+  </si>
+  <si>
+    <t>800W Mono - M28 case upgraded; Single VU;??? (2/3 width??)</t>
+  </si>
+  <si>
+    <t>C569</t>
+  </si>
+  <si>
+    <t>Mid-range CD C538 based; 9039q2m DAC; Qrono</t>
+  </si>
+  <si>
+    <t>PULSE FLEX</t>
+  </si>
+  <si>
+    <t>AM Logic; re-design with similar footprint/size, more like Pulse M style; multi-use</t>
+  </si>
+  <si>
+    <t>P130</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>BP130</t>
+  </si>
+  <si>
+    <t>Re-design of Flex Battery Pack</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Paging interface phase 1</t>
+  </si>
+  <si>
+    <t>Priority 3</t>
+  </si>
+  <si>
+    <t>Waiting to determine external development resource</t>
+  </si>
+  <si>
+    <t>PULSE DUO</t>
+  </si>
+  <si>
+    <t>Bluesound iQ</t>
+  </si>
+  <si>
+    <t>P630</t>
+  </si>
+  <si>
+    <t>NCLA</t>
+  </si>
+  <si>
+    <t>C3990</t>
+  </si>
+  <si>
+    <t>C399 Replacement. Bridgeable: Power amp C2990</t>
+  </si>
+  <si>
+    <t>New Classic ID</t>
+  </si>
+  <si>
+    <t>C2990</t>
+  </si>
+  <si>
+    <t>C298 Replacement - 2 x 180W bridgeable same as C3990 poweramp section</t>
+  </si>
+  <si>
+    <t>PA 16-80 M</t>
+  </si>
+  <si>
+    <t>16 channel Matrix Amplifier, DSP, Dante + Dirac</t>
+  </si>
+  <si>
+    <t>ISE 2026</t>
+  </si>
+  <si>
+    <t>PIF completed</t>
+  </si>
+  <si>
+    <t>PA 4-240 M</t>
+  </si>
+  <si>
+    <t>4 channel Matrix Amplifier, DSP, Dante + Dirac</t>
+  </si>
+  <si>
+    <t>PA 8-80 M</t>
+  </si>
+  <si>
+    <t>8 channel Matrix Amplifier, DSP, Dante + Dirac</t>
+  </si>
+  <si>
+    <t>CCLA</t>
+  </si>
+  <si>
+    <t>CC3380</t>
+  </si>
+  <si>
+    <t>D3045/C338 replacement;CL2250 poweramp. C399 updated display, 1 x MDC2 slot</t>
+  </si>
+  <si>
+    <t>Classic Compact ID</t>
+  </si>
+  <si>
+    <t>CC2550</t>
+  </si>
+  <si>
+    <t>Poweramp section of CL3380; 2 x 80; 1 x 300 bridgable</t>
+  </si>
+  <si>
+    <t>C379 (was C369)</t>
+  </si>
+  <si>
+    <t>2 x 80, UCD, MDC2, new DAC, ID, display</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Old ID</t>
+  </si>
+  <si>
+    <t>Hansong ready for production</t>
+  </si>
+  <si>
+    <t>MDC</t>
+  </si>
+  <si>
+    <t>C700 V2</t>
+  </si>
+  <si>
+    <t>As C700; +phono +ES9028 +BluOS surround +remote</t>
+  </si>
+  <si>
+    <t>CP300</t>
+  </si>
+  <si>
+    <t>Color LCD Controller</t>
+  </si>
+  <si>
+    <t>Buy Android tablet and resell</t>
+  </si>
+  <si>
+    <t>NODE NANO</t>
+  </si>
+  <si>
+    <t>iMX.8; entry-point streaming zone; ESS DAC; streamer-only; DTC primary</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>iMX.8; replacement for N130, ESS DAC, THX headphone amp</t>
+  </si>
+  <si>
+    <t>N132</t>
   </si>
 </sst>
 </file>
@@ -322,14 +619,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -665,116 +956,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DD15FF-F49C-5F47-96FC-9E64A42A89C3}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="16" max="20" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B2">
-        <v>400127</v>
+        <v>100117</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
       </c>
       <c r="I2">
-        <v>190</v>
+        <v>799</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="3">
-        <v>45717</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45717</v>
+        <v>85</v>
+      </c>
+      <c r="K2" s="1">
+        <v>46022</v>
+      </c>
+      <c r="L2" s="1">
+        <v>46082</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
@@ -785,61 +1088,61 @@
       <c r="O2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>230103</v>
+        <v>100127</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="I3">
-        <v>799</v>
+        <v>699</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3">
-        <v>45718</v>
-      </c>
-      <c r="L3" s="3">
-        <v>45778</v>
+        <v>85</v>
+      </c>
+      <c r="K3" s="1">
+        <v>46022</v>
+      </c>
+      <c r="L3" s="1">
+        <v>46082</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -850,161 +1153,161 @@
       <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B4">
-        <v>110112</v>
+        <v>100147</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
         <v>24</v>
       </c>
       <c r="I4">
-        <v>799</v>
+        <v>2499</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45718</v>
-      </c>
-      <c r="L4" s="3">
-        <v>45778</v>
+        <v>85</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45994</v>
+      </c>
+      <c r="L4" s="1">
+        <v>46054</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="3">
-        <v>45305</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="3">
-        <v>45412</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="B5">
-        <v>110115</v>
+        <v>100120</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
         <v>24</v>
       </c>
       <c r="I5">
-        <v>749</v>
+        <v>1999</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="3">
-        <v>45718</v>
-      </c>
-      <c r="L5" s="3">
-        <v>45778</v>
+        <v>85</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45994</v>
+      </c>
+      <c r="L5" s="1">
+        <v>46054</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="3">
-        <v>45305</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="3">
-        <v>45412</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>615</v>
+        <v>116</v>
       </c>
       <c r="B6">
-        <v>110105</v>
+        <v>110106</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -1013,10 +1316,10 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1025,63 +1328,63 @@
         <v>24</v>
       </c>
       <c r="I6">
-        <v>1299</v>
+        <v>3499</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="3">
-        <v>45718</v>
-      </c>
-      <c r="L6" s="3">
-        <v>45778</v>
+        <v>152</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45994</v>
+      </c>
+      <c r="L6" s="1">
+        <v>46054</v>
       </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="3">
+        <v>153</v>
+      </c>
+      <c r="P6" s="1">
         <v>45305</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="3">
-        <v>45412</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="3" t="s">
+      <c r="Q6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="B7">
-        <v>110104</v>
+        <v>110123</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1090,436 +1393,2583 @@
         <v>24</v>
       </c>
       <c r="I7">
-        <v>6999</v>
+        <v>1999</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="3">
-        <v>45718</v>
-      </c>
-      <c r="L7" s="3">
-        <v>45778</v>
+        <v>152</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45994</v>
+      </c>
+      <c r="L7" s="1">
+        <v>46054</v>
       </c>
       <c r="M7" t="s">
         <v>26</v>
       </c>
       <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="1">
+        <v>45593</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>210</v>
+      </c>
+      <c r="B8">
+        <v>110128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>2499</v>
+      </c>
+      <c r="J8" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45994</v>
+      </c>
+      <c r="L8" s="1">
+        <v>46054</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P8" s="1">
+        <v>45593</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>300125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>1499</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45964</v>
+      </c>
+      <c r="L9" s="1">
+        <v>46023</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>400107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>499</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45962</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45992</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="1">
+        <v>44019</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>300115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <v>279</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45872</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45931</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="1">
+        <v>45544</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>102</v>
+      </c>
+      <c r="B12">
+        <v>300119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45872</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45931</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>100122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>7499</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45871</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45931</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>136</v>
+      </c>
+      <c r="B14">
+        <v>100129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>799</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45871</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45931</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>107</v>
+      </c>
+      <c r="B15">
+        <v>300107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15">
+        <v>1199</v>
+      </c>
+      <c r="J15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="1">
+        <v>45842</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="1">
+        <v>45393</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>45489</v>
+      </c>
+      <c r="R15" s="1">
+        <v>45551</v>
+      </c>
+      <c r="S15" s="1">
+        <v>45839</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>300110</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>699</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45842</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="1">
+        <v>45393</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>45489</v>
+      </c>
+      <c r="R16" s="1">
+        <v>45551</v>
+      </c>
+      <c r="S16" s="1">
+        <v>45839</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>93</v>
+      </c>
+      <c r="B17">
+        <v>100131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>1299</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>94</v>
+      </c>
+      <c r="B18">
+        <v>100133</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>1299</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>108</v>
+      </c>
+      <c r="B19">
+        <v>100132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>999</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>117</v>
+      </c>
+      <c r="B20">
+        <v>100116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>8499</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>110108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>1249</v>
+      </c>
+      <c r="J21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>110114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>499</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="1">
+        <v>45305</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>214</v>
+      </c>
+      <c r="B23">
+        <v>110132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>349</v>
+      </c>
+      <c r="J23" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L23" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>76</v>
+      </c>
+      <c r="B24">
+        <v>100137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>699</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="1">
+        <v>45841</v>
+      </c>
+      <c r="L24" s="1">
+        <v>45901</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>400119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>299</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="1">
+        <v>45839</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45839</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" s="1">
+        <v>44743</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>100144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>4499</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="1">
+        <v>45810</v>
+      </c>
+      <c r="L26" s="1">
+        <v>45870</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <v>300117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27">
+        <v>999</v>
+      </c>
+      <c r="J27" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="1">
+        <v>45779</v>
+      </c>
+      <c r="L27" s="1">
+        <v>45809</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="1">
+        <v>45594</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>100121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <v>5999</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="1">
+        <v>45749</v>
+      </c>
+      <c r="L28" s="1">
+        <v>45809</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>100128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <v>3499</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="1">
+        <v>45749</v>
+      </c>
+      <c r="L29" s="1">
+        <v>45809</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>230103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <v>799</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1">
+        <v>45718</v>
+      </c>
+      <c r="L30" s="1">
+        <v>45778</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>110112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31">
+        <v>799</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" s="1">
+        <v>45718</v>
+      </c>
+      <c r="L31" s="1">
+        <v>45778</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="1">
+        <v>45305</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="1">
+        <v>45412</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>203</v>
+      </c>
+      <c r="B32">
+        <v>110115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32">
+        <v>749</v>
+      </c>
+      <c r="J32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="1">
+        <v>45718</v>
+      </c>
+      <c r="L32" s="1">
+        <v>45778</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="1">
+        <v>45305</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="1">
+        <v>45412</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>615</v>
+      </c>
+      <c r="B33">
+        <v>110105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <v>1299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="1">
+        <v>45718</v>
+      </c>
+      <c r="L33" s="1">
+        <v>45778</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="1">
+        <v>45305</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="1">
+        <v>45412</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>87</v>
+      </c>
+      <c r="B34">
+        <v>110104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34">
+        <v>6999</v>
+      </c>
+      <c r="J34" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45718</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45778</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="P34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="1">
         <v>44600</v>
       </c>
-      <c r="R7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="R34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>78</v>
+      </c>
+      <c r="B35">
+        <v>400127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>190</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="1">
+        <v>45717</v>
+      </c>
+      <c r="L35" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <v>110119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I36">
+        <v>3799</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="1">
+        <v>45657</v>
+      </c>
+      <c r="L36" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M36" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" s="1">
+        <v>45336</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="1">
+        <v>45385</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>73</v>
+      </c>
+      <c r="B37">
+        <v>110118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37">
+        <v>2399</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="1">
+        <v>45657</v>
+      </c>
+      <c r="L37" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M37" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" s="1">
+        <v>45336</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="1">
+        <v>45385</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>75</v>
+      </c>
+      <c r="B38">
+        <v>110120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38">
+        <v>2799</v>
+      </c>
+      <c r="J38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="1">
+        <v>45657</v>
+      </c>
+      <c r="L38" s="1">
+        <v>45717</v>
+      </c>
+      <c r="M38" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" s="1">
+        <v>45336</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="1">
+        <v>45385</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>88</v>
+      </c>
+      <c r="B39">
+        <v>200124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="1">
+      <c r="F39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39">
+        <v>3999</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L39" s="1">
+        <v>45689</v>
+      </c>
+      <c r="M39" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O39" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" s="1">
+        <v>45308</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>77</v>
+      </c>
+      <c r="B40">
+        <v>300123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40">
+        <v>999</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="1">
+        <v>45567</v>
+      </c>
+      <c r="L40" s="1">
+        <v>45597</v>
+      </c>
+      <c r="M40" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="1">
+        <v>45247</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>45369</v>
+      </c>
+      <c r="R40" s="1">
+        <v>45376</v>
+      </c>
+      <c r="S40" s="1">
+        <v>45566</v>
+      </c>
+      <c r="T40" s="1">
+        <v>45626</v>
+      </c>
+      <c r="U40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>69</v>
+      </c>
+      <c r="B41">
         <v>100139</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D41" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E41" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F41" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I41">
         <v>2499</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J41" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K41" s="1">
         <v>45506</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L41" s="1">
         <v>45566</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M41" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N41" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O41" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="P41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="1">
         <v>45198</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S41" s="1">
         <v>45536</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>77</v>
-      </c>
-      <c r="B9" s="1">
-        <v>300123</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="T41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>300116</v>
+      </c>
+      <c r="C42" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D42" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42">
+        <v>549</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="1">
+        <v>45476</v>
+      </c>
+      <c r="L42" s="1">
+        <v>45536</v>
+      </c>
+      <c r="M42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="1">
+        <v>45240</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>45372</v>
+      </c>
+      <c r="R42" s="1">
+        <v>45375</v>
+      </c>
+      <c r="S42" s="1">
+        <v>45444</v>
+      </c>
+      <c r="T42" s="1">
+        <v>45504</v>
+      </c>
+      <c r="U42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>400115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43">
+        <v>399</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45474</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45505</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" t="s">
+        <v>174</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R43" s="1">
+        <v>45444</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T43" s="1">
+        <v>45474</v>
+      </c>
+      <c r="U43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>65</v>
+      </c>
+      <c r="B44">
+        <v>100138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <v>1599</v>
+      </c>
+      <c r="J44" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="1">
+        <v>45445</v>
+      </c>
+      <c r="L44" s="1">
+        <v>45505</v>
+      </c>
+      <c r="M44" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" t="s">
+        <v>38</v>
+      </c>
+      <c r="O44" t="s">
+        <v>58</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="1">
+        <v>45198</v>
+      </c>
+      <c r="S44" s="1">
+        <v>45474</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>63</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="B45">
+        <v>300121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" t="s">
+        <v>176</v>
+      </c>
+      <c r="G45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H45" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I45">
+        <v>299</v>
+      </c>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="1">
+        <v>45415</v>
+      </c>
+      <c r="L45" s="1">
+        <v>45505</v>
+      </c>
+      <c r="M45" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" t="s">
+        <v>24</v>
+      </c>
+      <c r="P45" s="1">
+        <v>45121</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>45121</v>
+      </c>
+      <c r="R45" s="1">
+        <v>45121</v>
+      </c>
+      <c r="S45" s="1">
+        <v>45383</v>
+      </c>
+      <c r="T45" s="1">
+        <v>45443</v>
+      </c>
+      <c r="U45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>100115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
+        <v>166</v>
+      </c>
+      <c r="H46" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46">
         <v>999</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="2">
-        <v>45567</v>
-      </c>
-      <c r="L9" s="2">
-        <v>45597</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="J46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="1">
+        <v>45414</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45474</v>
+      </c>
+      <c r="M46" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="2">
-        <v>45247</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>45369</v>
-      </c>
-      <c r="R9" s="2">
-        <v>45376</v>
-      </c>
-      <c r="S9" s="2">
-        <v>45566</v>
-      </c>
-      <c r="T9" s="2">
-        <v>45626</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>88</v>
-      </c>
-      <c r="B10" s="1">
-        <v>200124</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="1">
-        <v>3999</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="2">
-        <v>45629</v>
-      </c>
-      <c r="L10" s="2">
-        <v>45689</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2">
-        <v>45308</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>74</v>
-      </c>
-      <c r="B11" s="1">
-        <v>110119</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="1">
-        <v>3799</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="2">
-        <v>45657</v>
-      </c>
-      <c r="L11" s="2">
-        <v>45717</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="N46" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="2">
-        <v>45336</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="2">
-        <v>45385</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1">
-        <v>110118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2399</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="2">
-        <v>45657</v>
-      </c>
-      <c r="L12" s="2">
-        <v>45717</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="2">
-        <v>45336</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="2">
-        <v>45385</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>75</v>
-      </c>
-      <c r="B13" s="1">
-        <v>110120</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2799</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="2">
-        <v>45657</v>
-      </c>
-      <c r="L13" s="2">
-        <v>45717</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="2">
-        <v>45336</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="2">
-        <v>45385</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>40</v>
+      <c r="O46" t="s">
+        <v>168</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X46" xr:uid="{24DD15FF-F49C-5F47-96FC-9E64A42A89C3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X46">
+      <sortCondition descending="1" ref="K1:K46"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>